--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1126,104 +1126,104 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1802,52 +1802,52 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,208 +12514,208 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1126,104 +1126,104 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1802,52 +1802,52 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,208 +12514,208 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
